--- a/Code/Results/Cases/Case_3_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.31788244937854</v>
+        <v>14.01231499237816</v>
       </c>
       <c r="C2">
-        <v>12.92619868698625</v>
+        <v>11.24466912202767</v>
       </c>
       <c r="D2">
-        <v>4.163673843813711</v>
+        <v>4.65009186814443</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.13920724081207</v>
+        <v>23.93492906009243</v>
       </c>
       <c r="G2">
-        <v>2.068724627309915</v>
+        <v>3.623931445481563</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.53695972654842</v>
+        <v>21.86898403228411</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.814517368892314</v>
+        <v>10.9251793847313</v>
       </c>
       <c r="M2">
-        <v>11.76400301896213</v>
+        <v>14.78889066323006</v>
       </c>
       <c r="N2">
-        <v>11.96031183061169</v>
+        <v>17.77724568101167</v>
       </c>
       <c r="O2">
-        <v>14.950599103892</v>
+        <v>21.32743305924266</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.02623060465147</v>
+        <v>13.53893684135647</v>
       </c>
       <c r="C3">
-        <v>12.39726639006657</v>
+        <v>11.04163750199346</v>
       </c>
       <c r="D3">
-        <v>4.039390461292714</v>
+        <v>4.609121112013741</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.50306175263663</v>
+        <v>23.90269593633092</v>
       </c>
       <c r="G3">
-        <v>2.073848765919453</v>
+        <v>3.62592853167873</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.61633593676483</v>
+        <v>21.96010210896457</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.747127052440542</v>
+        <v>10.94063392873699</v>
       </c>
       <c r="M3">
-        <v>11.23283221579915</v>
+        <v>14.70313885070994</v>
       </c>
       <c r="N3">
-        <v>12.11352710510874</v>
+        <v>17.82887292831443</v>
       </c>
       <c r="O3">
-        <v>14.68046101801183</v>
+        <v>21.36052316884369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.18577369015507</v>
+        <v>13.24146329985049</v>
       </c>
       <c r="C4">
-        <v>12.06015855722454</v>
+        <v>10.9138922758528</v>
       </c>
       <c r="D4">
-        <v>3.960693548086176</v>
+        <v>4.583423132494522</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.12005620172271</v>
+        <v>23.89009586802666</v>
       </c>
       <c r="G4">
-        <v>2.077097004642213</v>
+        <v>3.627220840514442</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.6780942119561</v>
+        <v>22.02075455883773</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.709074615303686</v>
+        <v>10.95178243925946</v>
       </c>
       <c r="M4">
-        <v>10.8977327563725</v>
+        <v>14.65249574585802</v>
       </c>
       <c r="N4">
-        <v>12.21091055951466</v>
+        <v>17.86234676095697</v>
       </c>
       <c r="O4">
-        <v>14.52680164529097</v>
+        <v>21.38633208164012</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.83130470663568</v>
+        <v>13.11871276680663</v>
       </c>
       <c r="C5">
-        <v>11.91979903681681</v>
+        <v>10.86110050449506</v>
       </c>
       <c r="D5">
-        <v>3.928052130478958</v>
+        <v>4.572819146868122</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.96610025362695</v>
+        <v>23.88677334960243</v>
       </c>
       <c r="G5">
-        <v>2.078446888994444</v>
+        <v>3.627764137698688</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.70638482798346</v>
+        <v>22.04665206835199</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.694400458859119</v>
+        <v>10.95674297229775</v>
       </c>
       <c r="M5">
-        <v>10.75910912252927</v>
+        <v>14.63237964590724</v>
       </c>
       <c r="N5">
-        <v>12.25142598200182</v>
+        <v>17.87643480416695</v>
       </c>
       <c r="O5">
-        <v>14.46724592591899</v>
+        <v>21.39822722882991</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.7717202873707</v>
+        <v>13.09824364304865</v>
       </c>
       <c r="C6">
-        <v>11.8963159360947</v>
+        <v>10.85229132763192</v>
       </c>
       <c r="D6">
-        <v>3.922598391667016</v>
+        <v>4.571050528697198</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.94067044889739</v>
+        <v>23.88633117151324</v>
       </c>
       <c r="G6">
-        <v>2.07867263445621</v>
+        <v>3.627855360190155</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.71126679564702</v>
+        <v>22.05102360646246</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.692013966893877</v>
+        <v>10.95759188004873</v>
       </c>
       <c r="M6">
-        <v>10.73597179852046</v>
+        <v>14.62907133281382</v>
       </c>
       <c r="N6">
-        <v>12.25820370290955</v>
+        <v>17.87880115073951</v>
       </c>
       <c r="O6">
-        <v>14.45754121210039</v>
+        <v>21.40028552510316</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.1810417695789</v>
+        <v>13.2398137699947</v>
       </c>
       <c r="C7">
-        <v>12.05827753826815</v>
+        <v>10.91318322675501</v>
       </c>
       <c r="D7">
-        <v>3.96025561035659</v>
+        <v>4.583280651477257</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.11797102155418</v>
+        <v>23.89004371851257</v>
       </c>
       <c r="G7">
-        <v>2.077115102853784</v>
+        <v>3.627228100040647</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.67846329775498</v>
+        <v>22.02109904210888</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.708873349783258</v>
+        <v>10.9518476484322</v>
       </c>
       <c r="M7">
-        <v>10.89587133873906</v>
+        <v>14.65222232116555</v>
       </c>
       <c r="N7">
-        <v>12.2114536013304</v>
+        <v>17.86253494530445</v>
       </c>
       <c r="O7">
-        <v>14.52598607786252</v>
+        <v>21.38648692953315</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.88231584962196</v>
+        <v>13.85061608749066</v>
       </c>
       <c r="C8">
-        <v>12.7464495917027</v>
+        <v>11.17532756951123</v>
       </c>
       <c r="D8">
-        <v>4.121332396113051</v>
+        <v>4.63608020507241</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.91841507871689</v>
+        <v>23.9223253795633</v>
       </c>
       <c r="G8">
-        <v>2.070470601355115</v>
+        <v>3.624606355210897</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.56153437298695</v>
+        <v>21.89942363492563</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.790589250614515</v>
+        <v>10.93016382810791</v>
       </c>
       <c r="M8">
-        <v>11.58281742735997</v>
+        <v>14.75891645206545</v>
       </c>
       <c r="N8">
-        <v>12.01245283194361</v>
+        <v>17.79467904422699</v>
       </c>
       <c r="O8">
-        <v>14.85492078512965</v>
+        <v>21.3377010904779</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.84550405140223</v>
+        <v>14.98693337417091</v>
       </c>
       <c r="C9">
-        <v>13.99372814300554</v>
+        <v>11.6632338803253</v>
       </c>
       <c r="D9">
-        <v>4.417160064513478</v>
+        <v>4.735133079820783</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.53937227681309</v>
+        <v>24.04243939676645</v>
       </c>
       <c r="G9">
-        <v>2.058223719899916</v>
+        <v>3.619987143477926</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.44246733471235</v>
+        <v>21.69824929588077</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.977314543603843</v>
+        <v>10.90079931513579</v>
       </c>
       <c r="M9">
-        <v>12.85202477998879</v>
+        <v>14.98333862285168</v>
       </c>
       <c r="N9">
-        <v>11.64855583740105</v>
+        <v>17.67564947152481</v>
       </c>
       <c r="O9">
-        <v>15.59665899472166</v>
+        <v>21.28571962123335</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.79932931234656</v>
+        <v>15.77558066578407</v>
       </c>
       <c r="C10">
-        <v>14.84315382461832</v>
+        <v>12.00361662239462</v>
       </c>
       <c r="D10">
-        <v>4.620986069414401</v>
+        <v>4.804926461833069</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.75060559956048</v>
+        <v>24.16486822285162</v>
       </c>
       <c r="G10">
-        <v>2.0496644740183</v>
+        <v>3.61690833103475</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.43185532764642</v>
+        <v>21.57339342663986</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.130692745000484</v>
+        <v>10.88723192110464</v>
       </c>
       <c r="M10">
-        <v>13.92048358805216</v>
+        <v>15.15644837525135</v>
       </c>
       <c r="N10">
-        <v>11.39745827831129</v>
+        <v>17.59669350176222</v>
       </c>
       <c r="O10">
-        <v>16.19982852768128</v>
+        <v>21.27428668822062</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.64063731294309</v>
+        <v>16.12278676718086</v>
       </c>
       <c r="C11">
-        <v>15.2143499886883</v>
+        <v>12.15412634443512</v>
       </c>
       <c r="D11">
-        <v>4.710551142035267</v>
+        <v>4.83597952702323</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.3040894273304</v>
+        <v>24.22785202701186</v>
       </c>
       <c r="G11">
-        <v>2.045856765994158</v>
+        <v>3.615575377041547</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.44583136101552</v>
+        <v>21.52160342521709</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.203972914386826</v>
+        <v>10.88279392290533</v>
       </c>
       <c r="M11">
-        <v>14.39951048206726</v>
+        <v>15.23675546342955</v>
       </c>
       <c r="N11">
-        <v>11.28683029845227</v>
+        <v>17.56260621098872</v>
       </c>
       <c r="O11">
-        <v>16.48659846520028</v>
+        <v>21.27491020993754</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.95246653499752</v>
+        <v>16.25249441586474</v>
       </c>
       <c r="C12">
-        <v>15.35268309449733</v>
+        <v>12.21046561160018</v>
       </c>
       <c r="D12">
-        <v>4.743997402611881</v>
+        <v>4.847634211714611</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.51390318804125</v>
+        <v>24.25273650975909</v>
       </c>
       <c r="G12">
-        <v>2.04442644609844</v>
+        <v>3.615080291303727</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.45400214053509</v>
+        <v>21.50271430482413</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.232224248329401</v>
+        <v>10.88136218168998</v>
       </c>
       <c r="M12">
-        <v>14.57725284120171</v>
+        <v>15.26736967251527</v>
       </c>
       <c r="N12">
-        <v>11.24546462348465</v>
+        <v>17.54996049414258</v>
       </c>
       <c r="O12">
-        <v>16.59694489450579</v>
+        <v>21.27598394301803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.88560779382758</v>
+        <v>16.22463997125553</v>
       </c>
       <c r="C13">
-        <v>15.32299037493858</v>
+        <v>12.1983615920896</v>
       </c>
       <c r="D13">
-        <v>4.736815294423652</v>
+        <v>4.84512887923961</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.46870810652162</v>
+        <v>24.24733145754735</v>
       </c>
       <c r="G13">
-        <v>2.044733989194232</v>
+        <v>3.615186487331902</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.4521116313519</v>
+        <v>21.50675023533617</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.22611754947982</v>
+        <v>10.88165947464839</v>
       </c>
       <c r="M13">
-        <v>14.53913477046298</v>
+        <v>15.2607676259436</v>
       </c>
       <c r="N13">
-        <v>11.25434986178722</v>
+        <v>17.55267231734195</v>
       </c>
       <c r="O13">
-        <v>16.57310229543418</v>
+        <v>21.27571544788687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.66642665463807</v>
+        <v>16.13349398799114</v>
       </c>
       <c r="C14">
-        <v>15.22577565476025</v>
+        <v>12.15877472609042</v>
       </c>
       <c r="D14">
-        <v>4.713312292455277</v>
+        <v>4.836940482346741</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.32134718909725</v>
+        <v>24.22987865679957</v>
       </c>
       <c r="G14">
-        <v>2.045738865360114</v>
+        <v>3.615534452409814</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.44644489261229</v>
+        <v>21.52003490881005</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.206287129743229</v>
+        <v>10.88267114885001</v>
       </c>
       <c r="M14">
-        <v>14.41420647761742</v>
+        <v>15.2392701494631</v>
       </c>
       <c r="N14">
-        <v>11.28341650121697</v>
+        <v>17.56156058573303</v>
       </c>
       <c r="O14">
-        <v>16.49564176038663</v>
+        <v>21.2749817613898</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.53129430868911</v>
+        <v>16.07743065365197</v>
       </c>
       <c r="C15">
-        <v>15.16593721429907</v>
+        <v>12.13444033173825</v>
       </c>
       <c r="D15">
-        <v>4.698854361650344</v>
+        <v>4.831911125838198</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.23110957406119</v>
+        <v>24.21932249578483</v>
       </c>
       <c r="G15">
-        <v>2.046355864585527</v>
+        <v>3.615748849631303</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.44335386523692</v>
+        <v>21.52826633790752</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.194205679504728</v>
+        <v>10.88332321773216</v>
       </c>
       <c r="M15">
-        <v>14.33720948054822</v>
+        <v>15.22612823434567</v>
       </c>
       <c r="N15">
-        <v>11.30128957034646</v>
+        <v>17.56703905634814</v>
       </c>
       <c r="O15">
-        <v>16.44842239947224</v>
+        <v>21.27464143090417</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.74339837810079</v>
+        <v>15.75264770491539</v>
       </c>
       <c r="C16">
-        <v>14.81858521653901</v>
+        <v>11.99369045575251</v>
       </c>
       <c r="D16">
-        <v>4.615067831853322</v>
+        <v>4.802882688929557</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.71447199824226</v>
+        <v>24.16089758716121</v>
       </c>
       <c r="G16">
-        <v>2.049914980321274</v>
+        <v>3.616996799178476</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.43133525787196</v>
+        <v>21.57687900809999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.125974076577096</v>
+        <v>10.88755680407922</v>
       </c>
       <c r="M16">
-        <v>13.88866455911398</v>
+        <v>15.15122973837281</v>
       </c>
       <c r="N16">
-        <v>11.40476122596927</v>
+        <v>17.59895794732396</v>
       </c>
       <c r="O16">
-        <v>16.18133425033265</v>
+        <v>21.27436316320091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.2479366270795</v>
+        <v>15.5503619631688</v>
       </c>
       <c r="C17">
-        <v>14.60156543751515</v>
+        <v>11.90621159795965</v>
       </c>
       <c r="D17">
-        <v>4.562846858532217</v>
+        <v>4.78489324608243</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.39806431228392</v>
+        <v>24.12691329556923</v>
       </c>
       <c r="G17">
-        <v>2.052119852725523</v>
+        <v>3.617779659118505</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.42890248250194</v>
+        <v>21.60798568054846</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.085012820630827</v>
+        <v>10.89059773107931</v>
       </c>
       <c r="M17">
-        <v>13.60694706449018</v>
+        <v>15.10566666660623</v>
       </c>
       <c r="N17">
-        <v>11.46916520069748</v>
+        <v>17.61900734574878</v>
       </c>
       <c r="O17">
-        <v>16.02063645583485</v>
+        <v>21.27568448995101</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.95848491848338</v>
+        <v>15.43293080208676</v>
       </c>
       <c r="C18">
-        <v>14.47531143368294</v>
+        <v>11.85549013038797</v>
       </c>
       <c r="D18">
-        <v>4.532514466699156</v>
+        <v>4.7744809074266</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.21631584006759</v>
+        <v>24.10805360726673</v>
       </c>
       <c r="G18">
-        <v>2.053396175335061</v>
+        <v>3.618236306353838</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.42926264339645</v>
+        <v>21.62634859942242</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.061783343026056</v>
+        <v>10.89251002730636</v>
       </c>
       <c r="M18">
-        <v>13.44249206594715</v>
+        <v>15.07960794142536</v>
       </c>
       <c r="N18">
-        <v>11.50654659892421</v>
+        <v>17.63071153933017</v>
       </c>
       <c r="O18">
-        <v>15.92937483528635</v>
+        <v>21.27699274104024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.85971070233204</v>
+        <v>15.39298841868785</v>
       </c>
       <c r="C19">
-        <v>14.43231990566113</v>
+        <v>11.83824801761057</v>
       </c>
       <c r="D19">
-        <v>4.522194084870822</v>
+        <v>4.77094438839609</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.15482483741547</v>
+        <v>24.10178647600542</v>
       </c>
       <c r="G19">
-        <v>2.053829736990106</v>
+        <v>3.618392014243069</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.4296814494475</v>
+        <v>21.63264681661709</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.053975054580272</v>
+        <v>10.89318554765192</v>
       </c>
       <c r="M19">
-        <v>13.38639398683365</v>
+        <v>15.07081093376852</v>
       </c>
       <c r="N19">
-        <v>11.51926108590527</v>
+        <v>17.63470399658218</v>
       </c>
       <c r="O19">
-        <v>15.89867659587016</v>
+        <v>21.27752984337857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.30114201461335</v>
+        <v>15.57200842463489</v>
       </c>
       <c r="C20">
-        <v>14.62481590931526</v>
+        <v>11.91556612754562</v>
       </c>
       <c r="D20">
-        <v>4.568436657262391</v>
+        <v>4.786815041482349</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.43172258525121</v>
+        <v>24.13045996029835</v>
       </c>
       <c r="G20">
-        <v>2.051884303506697</v>
+        <v>3.617695663738087</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.42897809615244</v>
+        <v>21.60462553790541</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.089339044162811</v>
+        <v>10.8902571283054</v>
       </c>
       <c r="M20">
-        <v>13.63718642972937</v>
+        <v>15.11050176856155</v>
       </c>
       <c r="N20">
-        <v>11.46227425112585</v>
+        <v>17.61685522531717</v>
       </c>
       <c r="O20">
-        <v>16.03762238323564</v>
+        <v>21.27548708708198</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.73098821700461</v>
+        <v>16.16031467260013</v>
       </c>
       <c r="C21">
-        <v>15.25439080939612</v>
+        <v>12.170420387402</v>
       </c>
       <c r="D21">
-        <v>4.7202285703791</v>
+        <v>4.839348481238712</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.36462562006352</v>
+        <v>24.23497703196283</v>
       </c>
       <c r="G21">
-        <v>2.045443401165813</v>
+        <v>3.615431984432856</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.44802984649874</v>
+        <v>21.51611324600716</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.212098210905234</v>
+        <v>10.88236724672761</v>
       </c>
       <c r="M21">
-        <v>14.45099982553975</v>
+        <v>15.24557911670399</v>
       </c>
       <c r="N21">
-        <v>11.27486454332197</v>
+        <v>17.55894277046612</v>
       </c>
       <c r="O21">
-        <v>16.51834644488085</v>
+        <v>21.27517453283416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.62613328608651</v>
+        <v>16.5344374437494</v>
       </c>
       <c r="C22">
-        <v>15.652838947972</v>
+        <v>12.33314799290633</v>
       </c>
       <c r="D22">
-        <v>4.816687301218567</v>
+        <v>4.873071456315525</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.97557640325646</v>
+        <v>24.30930332543116</v>
       </c>
       <c r="G22">
-        <v>2.041300975987938</v>
+        <v>3.614008910660378</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.47733874909325</v>
+        <v>21.46247855278907</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.295251469556628</v>
+        <v>10.87866085195645</v>
       </c>
       <c r="M22">
-        <v>14.96159074569988</v>
+        <v>15.33503737046014</v>
       </c>
       <c r="N22">
-        <v>11.15545767708502</v>
+        <v>17.52262275813668</v>
       </c>
       <c r="O22">
-        <v>16.84273252074527</v>
+        <v>21.27985211223697</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.1519521620004</v>
+        <v>16.33574300256733</v>
       </c>
       <c r="C23">
-        <v>15.44138210323127</v>
+        <v>12.24665827295855</v>
       </c>
       <c r="D23">
-        <v>4.765461528149673</v>
+        <v>4.855130142741559</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.64942535934046</v>
+        <v>24.26908852575636</v>
       </c>
       <c r="G23">
-        <v>2.04350600026791</v>
+        <v>3.614763289573542</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.46009617421897</v>
+        <v>21.49071805165184</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.25060449839995</v>
+        <v>10.88050652513797</v>
       </c>
       <c r="M23">
-        <v>14.69101321449541</v>
+        <v>15.28719091501006</v>
       </c>
       <c r="N23">
-        <v>11.21890220979917</v>
+        <v>17.54186776842314</v>
       </c>
       <c r="O23">
-        <v>16.66867677725399</v>
+        <v>21.27690905643875</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.27710220538343</v>
+        <v>15.56222558425549</v>
       </c>
       <c r="C24">
-        <v>14.61430899753468</v>
+        <v>11.91133827759372</v>
       </c>
       <c r="D24">
-        <v>4.565910473144168</v>
+        <v>4.785946415386453</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.41650517564972</v>
+        <v>24.12885439912632</v>
       </c>
       <c r="G24">
-        <v>2.051990768113925</v>
+        <v>3.617733617578605</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.42893844619423</v>
+        <v>21.60614316564648</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.0873821625261</v>
+        <v>10.89041060385899</v>
       </c>
       <c r="M24">
-        <v>13.62352297700994</v>
+        <v>15.10831539349315</v>
       </c>
       <c r="N24">
-        <v>11.46538854531502</v>
+        <v>17.61782764590731</v>
       </c>
       <c r="O24">
-        <v>16.02993953704884</v>
+        <v>21.27557462405442</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.08339288771734</v>
+        <v>14.68707265136703</v>
       </c>
       <c r="C25">
-        <v>13.66778477864636</v>
+        <v>11.53427071157525</v>
       </c>
       <c r="D25">
-        <v>4.339420462297813</v>
+        <v>4.70884262490768</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.09656200283273</v>
+        <v>24.00390284269143</v>
       </c>
       <c r="G25">
-        <v>2.061456879128155</v>
+        <v>3.621181220838607</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.46188893557084</v>
+        <v>21.74865181565906</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.923955679213144</v>
+        <v>10.90733580567144</v>
       </c>
       <c r="M25">
-        <v>12.51786231445722</v>
+        <v>14.92110453225241</v>
       </c>
       <c r="N25">
-        <v>11.74416399066152</v>
+        <v>17.70635394228535</v>
       </c>
       <c r="O25">
-        <v>15.3856958968218</v>
+        <v>21.29508969743879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.01231499237816</v>
+        <v>19.31788244937851</v>
       </c>
       <c r="C2">
-        <v>11.24466912202767</v>
+        <v>12.92619868698621</v>
       </c>
       <c r="D2">
-        <v>4.65009186814443</v>
+        <v>4.1636738438137</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.93492906009243</v>
+        <v>19.13920724081212</v>
       </c>
       <c r="G2">
-        <v>3.623931445481563</v>
+        <v>2.068724627310049</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.86898403228411</v>
+        <v>13.53695972654851</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.9251793847313</v>
+        <v>6.814517368892322</v>
       </c>
       <c r="M2">
-        <v>14.78889066323006</v>
+        <v>11.76400301896216</v>
       </c>
       <c r="N2">
-        <v>17.77724568101167</v>
+        <v>11.96031183061172</v>
       </c>
       <c r="O2">
-        <v>21.32743305924266</v>
+        <v>14.95059910389208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.53893684135647</v>
+        <v>18.02623060465152</v>
       </c>
       <c r="C3">
-        <v>11.04163750199346</v>
+        <v>12.39726639006676</v>
       </c>
       <c r="D3">
-        <v>4.609121112013741</v>
+        <v>4.039390461292709</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.90269593633092</v>
+        <v>18.50306175263653</v>
       </c>
       <c r="G3">
-        <v>3.62592853167873</v>
+        <v>2.073848765919721</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.96010210896457</v>
+        <v>13.61633593676475</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.94063392873699</v>
+        <v>6.747127052440538</v>
       </c>
       <c r="M3">
-        <v>14.70313885070994</v>
+        <v>11.23283221579915</v>
       </c>
       <c r="N3">
-        <v>17.82887292831443</v>
+        <v>12.11352710510868</v>
       </c>
       <c r="O3">
-        <v>21.36052316884369</v>
+        <v>14.68046101801175</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.24146329985049</v>
+        <v>17.18577369015518</v>
       </c>
       <c r="C4">
-        <v>10.9138922758528</v>
+        <v>12.06015855722442</v>
       </c>
       <c r="D4">
-        <v>4.583423132494522</v>
+        <v>3.960693548086117</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.89009586802666</v>
+        <v>18.1200562017225</v>
       </c>
       <c r="G4">
-        <v>3.627220840514442</v>
+        <v>2.077097004642079</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.02075455883773</v>
+        <v>13.67809421195587</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.95178243925946</v>
+        <v>6.709074615303741</v>
       </c>
       <c r="M4">
-        <v>14.65249574585802</v>
+        <v>10.89773275637245</v>
       </c>
       <c r="N4">
-        <v>17.86234676095697</v>
+        <v>12.21091055951459</v>
       </c>
       <c r="O4">
-        <v>21.38633208164012</v>
+        <v>14.52680164529079</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.11871276680663</v>
+        <v>16.83130470663577</v>
       </c>
       <c r="C5">
-        <v>10.86110050449506</v>
+        <v>11.91979903681677</v>
       </c>
       <c r="D5">
-        <v>4.572819146868122</v>
+        <v>3.928052130478889</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.88677334960243</v>
+        <v>17.96610025362675</v>
       </c>
       <c r="G5">
-        <v>3.627764137698688</v>
+        <v>2.078446888994443</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.04665206835199</v>
+        <v>13.70638482798324</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.95674297229775</v>
+        <v>6.694400458859127</v>
       </c>
       <c r="M5">
-        <v>14.63237964590724</v>
+        <v>10.75910912252923</v>
       </c>
       <c r="N5">
-        <v>17.87643480416695</v>
+        <v>12.25142598200175</v>
       </c>
       <c r="O5">
-        <v>21.39822722882991</v>
+        <v>14.46724592591882</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.09824364304865</v>
+        <v>16.77172028737071</v>
       </c>
       <c r="C6">
-        <v>10.85229132763192</v>
+        <v>11.8963159360951</v>
       </c>
       <c r="D6">
-        <v>4.571050528697198</v>
+        <v>3.922598391666887</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.88633117151324</v>
+        <v>17.94067044889744</v>
       </c>
       <c r="G6">
-        <v>3.627855360190155</v>
+        <v>2.078672634456745</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.05102360646246</v>
+        <v>13.7112667956471</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.95759188004873</v>
+        <v>6.692013966893959</v>
       </c>
       <c r="M6">
-        <v>14.62907133281382</v>
+        <v>10.73597179852051</v>
       </c>
       <c r="N6">
-        <v>17.87880115073951</v>
+        <v>12.25820370290955</v>
       </c>
       <c r="O6">
-        <v>21.40028552510316</v>
+        <v>14.45754121210041</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.2398137699947</v>
+        <v>17.18104176957884</v>
       </c>
       <c r="C7">
-        <v>10.91318322675501</v>
+        <v>12.05827753826837</v>
       </c>
       <c r="D7">
-        <v>4.583280651477257</v>
+        <v>3.960255610356699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.89004371851257</v>
+        <v>18.11797102155426</v>
       </c>
       <c r="G7">
-        <v>3.627228100040647</v>
+        <v>2.077115102853385</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.02109904210888</v>
+        <v>13.67846329775509</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.9518476484322</v>
+        <v>6.708873349783143</v>
       </c>
       <c r="M7">
-        <v>14.65222232116555</v>
+        <v>10.89587133873907</v>
       </c>
       <c r="N7">
-        <v>17.86253494530445</v>
+        <v>12.21145360133039</v>
       </c>
       <c r="O7">
-        <v>21.38648692953315</v>
+        <v>14.52598607786259</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.85061608749066</v>
+        <v>18.88231584962201</v>
       </c>
       <c r="C8">
-        <v>11.17532756951123</v>
+        <v>12.74644959170249</v>
       </c>
       <c r="D8">
-        <v>4.63608020507241</v>
+        <v>4.121332396113104</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.9223253795633</v>
+        <v>18.91841507871681</v>
       </c>
       <c r="G8">
-        <v>3.624606355210897</v>
+        <v>2.070470601354983</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.89942363492563</v>
+        <v>13.56153437298685</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.93016382810791</v>
+        <v>6.790589250614472</v>
       </c>
       <c r="M8">
-        <v>14.75891645206545</v>
+        <v>11.58281742735995</v>
       </c>
       <c r="N8">
-        <v>17.79467904422699</v>
+        <v>12.01245283194358</v>
       </c>
       <c r="O8">
-        <v>21.3377010904779</v>
+        <v>14.85492078512959</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.98693337417091</v>
+        <v>21.84550405140219</v>
       </c>
       <c r="C9">
-        <v>11.6632338803253</v>
+        <v>13.99372814300553</v>
       </c>
       <c r="D9">
-        <v>4.735133079820783</v>
+        <v>4.417160064513477</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.04243939676645</v>
+        <v>20.53937227681314</v>
       </c>
       <c r="G9">
-        <v>3.619987143477926</v>
+        <v>2.058223719900185</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.69824929588077</v>
+        <v>13.44246733471246</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.90079931513579</v>
+        <v>6.977314543603794</v>
       </c>
       <c r="M9">
-        <v>14.98333862285168</v>
+        <v>12.85202477998879</v>
       </c>
       <c r="N9">
-        <v>17.67564947152481</v>
+        <v>11.64855583740112</v>
       </c>
       <c r="O9">
-        <v>21.28571962123335</v>
+        <v>15.59665899472174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77558066578407</v>
+        <v>23.79932931234661</v>
       </c>
       <c r="C10">
-        <v>12.00361662239462</v>
+        <v>14.84315382461834</v>
       </c>
       <c r="D10">
-        <v>4.804926461833069</v>
+        <v>4.620986069414312</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.16486822285162</v>
+        <v>21.7506055995605</v>
       </c>
       <c r="G10">
-        <v>3.61690833103475</v>
+        <v>2.049664474018166</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.57339342663986</v>
+        <v>13.43185532764634</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.88723192110464</v>
+        <v>7.130692745000483</v>
       </c>
       <c r="M10">
-        <v>15.15644837525135</v>
+        <v>13.92048358805217</v>
       </c>
       <c r="N10">
-        <v>17.59669350176222</v>
+        <v>11.39745827831123</v>
       </c>
       <c r="O10">
-        <v>21.27428668822062</v>
+        <v>16.19982852768124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.12278676718086</v>
+        <v>24.64063731294301</v>
       </c>
       <c r="C11">
-        <v>12.15412634443512</v>
+        <v>15.21434998868855</v>
       </c>
       <c r="D11">
-        <v>4.83597952702323</v>
+        <v>4.710551142035267</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.22785202701186</v>
+        <v>22.30408942733042</v>
       </c>
       <c r="G11">
-        <v>3.615575377041547</v>
+        <v>2.045856765994161</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.52160342521709</v>
+        <v>13.44583136101562</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.88279392290533</v>
+        <v>7.203972914386816</v>
       </c>
       <c r="M11">
-        <v>15.23675546342955</v>
+        <v>14.3995104820672</v>
       </c>
       <c r="N11">
-        <v>17.56260621098872</v>
+        <v>11.2868302984523</v>
       </c>
       <c r="O11">
-        <v>21.27491020993754</v>
+        <v>16.48659846520031</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.25249441586474</v>
+        <v>24.95246653499748</v>
       </c>
       <c r="C12">
-        <v>12.21046561160018</v>
+        <v>15.35268309449738</v>
       </c>
       <c r="D12">
-        <v>4.847634211714611</v>
+        <v>4.743997402611975</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.25273650975909</v>
+        <v>22.51390318804126</v>
       </c>
       <c r="G12">
-        <v>3.615080291303727</v>
+        <v>2.044426446098174</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.50271430482413</v>
+        <v>13.45400214053519</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.88136218168998</v>
+        <v>7.232224248329477</v>
       </c>
       <c r="M12">
-        <v>15.26736967251527</v>
+        <v>14.57725284120163</v>
       </c>
       <c r="N12">
-        <v>17.54996049414258</v>
+        <v>11.24546462348464</v>
       </c>
       <c r="O12">
-        <v>21.27598394301803</v>
+        <v>16.59694489450583</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.22463997125553</v>
+        <v>24.88560779382757</v>
       </c>
       <c r="C13">
-        <v>12.1983615920896</v>
+        <v>15.32299037493866</v>
       </c>
       <c r="D13">
-        <v>4.84512887923961</v>
+        <v>4.736815294423686</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.24733145754735</v>
+        <v>22.46870810652165</v>
       </c>
       <c r="G13">
-        <v>3.615186487331902</v>
+        <v>2.04473398919423</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.50675023533617</v>
+        <v>13.45211163135192</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.88165947464839</v>
+        <v>7.226117549479774</v>
       </c>
       <c r="M13">
-        <v>15.2607676259436</v>
+        <v>14.53913477046298</v>
       </c>
       <c r="N13">
-        <v>17.55267231734195</v>
+        <v>11.25434986178718</v>
       </c>
       <c r="O13">
-        <v>21.27571544788687</v>
+        <v>16.57310229543418</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.13349398799114</v>
+        <v>24.66642665463806</v>
       </c>
       <c r="C14">
-        <v>12.15877472609042</v>
+        <v>15.22577565476043</v>
       </c>
       <c r="D14">
-        <v>4.836940482346741</v>
+        <v>4.713312292455464</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.22987865679957</v>
+        <v>22.32134718909719</v>
       </c>
       <c r="G14">
-        <v>3.615534452409814</v>
+        <v>2.045738865360246</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.52003490881005</v>
+        <v>13.44644489261229</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.88267114885001</v>
+        <v>7.206287129743197</v>
       </c>
       <c r="M14">
-        <v>15.2392701494631</v>
+        <v>14.41420647761744</v>
       </c>
       <c r="N14">
-        <v>17.56156058573303</v>
+        <v>11.28341650121697</v>
       </c>
       <c r="O14">
-        <v>21.2749817613898</v>
+        <v>16.49564176038658</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.07743065365197</v>
+        <v>24.53129430868912</v>
       </c>
       <c r="C15">
-        <v>12.13444033173825</v>
+        <v>15.16593721429896</v>
       </c>
       <c r="D15">
-        <v>4.831911125838198</v>
+        <v>4.698854361650544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.21932249578483</v>
+        <v>22.23110957406112</v>
       </c>
       <c r="G15">
-        <v>3.615748849631303</v>
+        <v>2.046355864585661</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.52826633790752</v>
+        <v>13.44335386523689</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.88332321773216</v>
+        <v>7.194205679504689</v>
       </c>
       <c r="M15">
-        <v>15.22612823434567</v>
+        <v>14.33720948054823</v>
       </c>
       <c r="N15">
-        <v>17.56703905634814</v>
+        <v>11.30128957034643</v>
       </c>
       <c r="O15">
-        <v>21.27464143090417</v>
+        <v>16.4484223994722</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.75264770491539</v>
+        <v>23.74339837810083</v>
       </c>
       <c r="C16">
-        <v>11.99369045575251</v>
+        <v>14.81858521653892</v>
       </c>
       <c r="D16">
-        <v>4.802882688929557</v>
+        <v>4.615067831853398</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.16089758716121</v>
+        <v>21.71447199824226</v>
       </c>
       <c r="G16">
-        <v>3.616996799178476</v>
+        <v>2.049914980321276</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.57687900809999</v>
+        <v>13.43133525787191</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.88755680407922</v>
+        <v>7.125974076577113</v>
       </c>
       <c r="M16">
-        <v>15.15122973837281</v>
+        <v>13.88866455911399</v>
       </c>
       <c r="N16">
-        <v>17.59895794732396</v>
+        <v>11.40476122596917</v>
       </c>
       <c r="O16">
-        <v>21.27436316320091</v>
+        <v>16.18133425033263</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.5503619631688</v>
+        <v>23.24793662707953</v>
       </c>
       <c r="C17">
-        <v>11.90621159795965</v>
+        <v>14.60156543751505</v>
       </c>
       <c r="D17">
-        <v>4.78489324608243</v>
+        <v>4.562846858532247</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.12691329556923</v>
+        <v>21.39806431228394</v>
       </c>
       <c r="G17">
-        <v>3.617779659118505</v>
+        <v>2.052119852725657</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.60798568054846</v>
+        <v>13.42890248250194</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.89059773107931</v>
+        <v>7.085012820630808</v>
       </c>
       <c r="M17">
-        <v>15.10566666660623</v>
+        <v>13.60694706449019</v>
       </c>
       <c r="N17">
-        <v>17.61900734574878</v>
+        <v>11.46916520069741</v>
       </c>
       <c r="O17">
-        <v>21.27568448995101</v>
+        <v>16.02063645583489</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.43293080208676</v>
+        <v>22.95848491848334</v>
       </c>
       <c r="C18">
-        <v>11.85549013038797</v>
+        <v>14.47531143368301</v>
       </c>
       <c r="D18">
-        <v>4.7744809074266</v>
+        <v>4.532514466699338</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.10805360726673</v>
+        <v>21.21631584006767</v>
       </c>
       <c r="G18">
-        <v>3.618236306353838</v>
+        <v>2.053396175335195</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.62634859942242</v>
+        <v>13.42926264339662</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.89251002730636</v>
+        <v>7.061783343026123</v>
       </c>
       <c r="M18">
-        <v>15.07960794142536</v>
+        <v>13.4424920659471</v>
       </c>
       <c r="N18">
-        <v>17.63071153933017</v>
+        <v>11.5065465989243</v>
       </c>
       <c r="O18">
-        <v>21.27699274104024</v>
+        <v>15.92937483528645</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.39298841868785</v>
+        <v>22.85971070233199</v>
       </c>
       <c r="C19">
-        <v>11.83824801761057</v>
+        <v>14.43231990566085</v>
       </c>
       <c r="D19">
-        <v>4.77094438839609</v>
+        <v>4.522194084870822</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.10178647600542</v>
+        <v>21.15482483741552</v>
       </c>
       <c r="G19">
-        <v>3.618392014243069</v>
+        <v>2.053829736990375</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.63264681661709</v>
+        <v>13.42968144944753</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.89318554765192</v>
+        <v>7.053975054580248</v>
       </c>
       <c r="M19">
-        <v>15.07081093376852</v>
+        <v>13.38639398683364</v>
       </c>
       <c r="N19">
-        <v>17.63470399658218</v>
+        <v>11.51926108590527</v>
       </c>
       <c r="O19">
-        <v>21.27752984337857</v>
+        <v>15.89867659587023</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.57200842463489</v>
+        <v>23.30114201461345</v>
       </c>
       <c r="C20">
-        <v>11.91556612754562</v>
+        <v>14.62481590931509</v>
       </c>
       <c r="D20">
-        <v>4.786815041482349</v>
+        <v>4.568436657262331</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.13045996029835</v>
+        <v>21.43172258525118</v>
       </c>
       <c r="G20">
-        <v>3.617695663738087</v>
+        <v>2.051884303506697</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.60462553790541</v>
+        <v>13.42897809615229</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.8902571283054</v>
+        <v>7.089339044162808</v>
       </c>
       <c r="M20">
-        <v>15.11050176856155</v>
+        <v>13.63718642972943</v>
       </c>
       <c r="N20">
-        <v>17.61685522531717</v>
+        <v>11.46227425112576</v>
       </c>
       <c r="O20">
-        <v>21.27548708708198</v>
+        <v>16.03762238323557</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.16031467260013</v>
+        <v>24.73098821700456</v>
       </c>
       <c r="C21">
-        <v>12.170420387402</v>
+        <v>15.25439080939611</v>
       </c>
       <c r="D21">
-        <v>4.839348481238712</v>
+        <v>4.720228570379193</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.23497703196283</v>
+        <v>22.36462562006351</v>
       </c>
       <c r="G21">
-        <v>3.615431984432856</v>
+        <v>2.045443401165945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.51611324600716</v>
+        <v>13.44802984649874</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.88236724672761</v>
+        <v>7.212098210905246</v>
       </c>
       <c r="M21">
-        <v>15.24557911670399</v>
+        <v>14.45099982553974</v>
       </c>
       <c r="N21">
-        <v>17.55894277046612</v>
+        <v>11.27486454332193</v>
       </c>
       <c r="O21">
-        <v>21.27517453283416</v>
+        <v>16.51834644488086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.5344374437494</v>
+        <v>25.62613328608649</v>
       </c>
       <c r="C22">
-        <v>12.33314799290633</v>
+        <v>15.65283894797183</v>
       </c>
       <c r="D22">
-        <v>4.873071456315525</v>
+        <v>4.816687301218667</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.30930332543116</v>
+        <v>22.97557640325649</v>
       </c>
       <c r="G22">
-        <v>3.614008910660378</v>
+        <v>2.041300975987807</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.46247855278907</v>
+        <v>13.47733874909328</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.87866085195645</v>
+        <v>7.295251469556635</v>
       </c>
       <c r="M22">
-        <v>15.33503737046014</v>
+        <v>14.96159074569985</v>
       </c>
       <c r="N22">
-        <v>17.52262275813668</v>
+        <v>11.15545767708502</v>
       </c>
       <c r="O22">
-        <v>21.27985211223697</v>
+        <v>16.84273252074533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.33574300256733</v>
+        <v>25.15195216200044</v>
       </c>
       <c r="C23">
-        <v>12.24665827295855</v>
+        <v>15.44138210323124</v>
       </c>
       <c r="D23">
-        <v>4.855130142741559</v>
+        <v>4.765461528149714</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.26908852575636</v>
+        <v>22.6494253593405</v>
       </c>
       <c r="G23">
-        <v>3.614763289573542</v>
+        <v>2.043506000268043</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.49071805165184</v>
+        <v>13.46009617421898</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.88050652513797</v>
+        <v>7.250604498399979</v>
       </c>
       <c r="M23">
-        <v>15.28719091501006</v>
+        <v>14.69101321449543</v>
       </c>
       <c r="N23">
-        <v>17.54186776842314</v>
+        <v>11.21890220979916</v>
       </c>
       <c r="O23">
-        <v>21.27690905643875</v>
+        <v>16.668676777254</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.56222558425549</v>
+        <v>23.27710220538349</v>
       </c>
       <c r="C24">
-        <v>11.91133827759372</v>
+        <v>14.61430899753475</v>
       </c>
       <c r="D24">
-        <v>4.785946415386453</v>
+        <v>4.565910473144101</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.12885439912632</v>
+        <v>21.41650517564974</v>
       </c>
       <c r="G24">
-        <v>3.617733617578605</v>
+        <v>2.051990768113925</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.60614316564648</v>
+        <v>13.42893844619421</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.89041060385899</v>
+        <v>7.087382162526101</v>
       </c>
       <c r="M24">
-        <v>15.10831539349315</v>
+        <v>13.62352297700997</v>
       </c>
       <c r="N24">
-        <v>17.61782764590731</v>
+        <v>11.46538854531501</v>
       </c>
       <c r="O24">
-        <v>21.27557462405442</v>
+        <v>16.02993953704882</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.68707265136703</v>
+        <v>21.08339288771726</v>
       </c>
       <c r="C25">
-        <v>11.53427071157525</v>
+        <v>13.66778477864643</v>
       </c>
       <c r="D25">
-        <v>4.70884262490768</v>
+        <v>4.339420462297797</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.00390284269143</v>
+        <v>20.0965620028329</v>
       </c>
       <c r="G25">
-        <v>3.621181220838607</v>
+        <v>2.061456879128157</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.74865181565906</v>
+        <v>13.46188893557104</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.90733580567144</v>
+        <v>6.923955679213211</v>
       </c>
       <c r="M25">
-        <v>14.92110453225241</v>
+        <v>12.51786231445729</v>
       </c>
       <c r="N25">
-        <v>17.70635394228535</v>
+        <v>11.74416399066154</v>
       </c>
       <c r="O25">
-        <v>21.29508969743879</v>
+        <v>15.38569589682198</v>
       </c>
     </row>
   </sheetData>
